--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_7_11.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_7_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-907531.2750248851</v>
+        <v>-887902.7164384034</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17449938.18306643</v>
+        <v>16810022.61912038</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484447</v>
+        <v>492028.934248445</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9818987.891610259</v>
+        <v>9861539.918334942</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
         <v>33.76104808841092</v>
@@ -665,19 +665,19 @@
         <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>333.827898256972</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>414.5716643333118</v>
+        <v>353.9689009165905</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -817,25 +817,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>65.07405371603522</v>
       </c>
       <c r="F4" t="n">
-        <v>85.33437064100444</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -896,13 +896,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>102.1665932698961</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>131.1371372363541</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
@@ -911,10 +911,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>0.8069000430770075</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>13.8523599663048</v>
+        <v>8.90924533663147</v>
       </c>
     </row>
     <row r="8">
@@ -1139,7 +1139,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>195.8145080161088</v>
+        <v>272.2613629461744</v>
       </c>
       <c r="F8" t="n">
         <v>23.58875529488432</v>
@@ -1148,10 +1148,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
@@ -1190,13 +1190,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>4.203262463343094</v>
@@ -1294,19 +1294,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>50.05924486566805</v>
       </c>
       <c r="E10" t="n">
-        <v>134.8657154961771</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
@@ -1345,7 +1345,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1373,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>189.9551219253973</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
@@ -1385,7 +1385,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>220.1934728610659</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1430,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>108.1177056177443</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
         <v>170.8360944016073</v>
@@ -1537,13 +1537,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>84.01976803536537</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1585,7 +1585,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
@@ -1625,7 +1625,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>103.8284742946034</v>
       </c>
       <c r="U16" t="n">
-        <v>46.22530271040065</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556926</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
@@ -2005,7 +2005,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>43.77283765622373</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
@@ -2017,7 +2017,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735226124</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2132,7 +2132,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U20" t="n">
         <v>256.6300796561533</v>
@@ -2254,10 +2254,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>35.51678257079755</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
@@ -2296,13 +2296,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>103.3456594571957</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800599</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
         <v>433.7610480884109</v>
@@ -2479,7 +2479,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
@@ -2491,10 +2491,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2542,7 +2542,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>2.292363805516904</v>
       </c>
     </row>
     <row r="26">
@@ -2716,7 +2716,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
@@ -2728,10 +2728,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6486707394257</v>
+        <v>52.79556056590986</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
@@ -2965,7 +2965,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>108.5103196251633</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>18.0567773522574</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3010,7 +3010,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>242.9378371199217</v>
@@ -3193,7 +3193,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>6.133574646794328</v>
       </c>
       <c r="F34" t="n">
         <v>174.9399834978613</v>
@@ -3202,10 +3202,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3253,7 +3253,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>66.57964473925398</v>
+        <v>66.57964473925399</v>
       </c>
       <c r="T35" t="n">
         <v>201.6308445169444</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>173.6647221930498</v>
+        <v>173.6647221930499</v>
       </c>
       <c r="C37" t="n">
         <v>154.6003840628599</v>
@@ -3433,16 +3433,16 @@
         <v>151.8247133730227</v>
       </c>
       <c r="F37" t="n">
-        <v>158.7042731591139</v>
+        <v>158.704273159114</v>
       </c>
       <c r="G37" t="n">
         <v>147.6996518856832</v>
       </c>
       <c r="H37" t="n">
-        <v>122.2674422277818</v>
+        <v>122.2674422277812</v>
       </c>
       <c r="I37" t="n">
-        <v>71.53763939432403</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>4.967932742934804</v>
+        <v>4.967932742934465</v>
       </c>
       <c r="S37" t="n">
         <v>141.4132446762359</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.57964473925398</v>
+        <v>66.57964473925399</v>
       </c>
       <c r="T38" t="n">
         <v>201.6308445169444</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>173.6647221930498</v>
+        <v>173.6647221930499</v>
       </c>
       <c r="C40" t="n">
         <v>154.6003840628599</v>
@@ -3670,16 +3670,16 @@
         <v>151.8247133730227</v>
       </c>
       <c r="F40" t="n">
-        <v>158.7042731591139</v>
+        <v>158.704273159114</v>
       </c>
       <c r="G40" t="n">
-        <v>147.6996518856832</v>
+        <v>147.6996518856826</v>
       </c>
       <c r="H40" t="n">
-        <v>122.2674422277818</v>
+        <v>122.2674422277819</v>
       </c>
       <c r="I40" t="n">
-        <v>71.53763939432403</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.967932742934455</v>
+        <v>4.967932742934465</v>
       </c>
       <c r="S40" t="n">
         <v>141.4132446762359</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.57964473925398</v>
+        <v>66.57964473925399</v>
       </c>
       <c r="T41" t="n">
         <v>201.6308445169444</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>173.6647221930498</v>
+        <v>173.6647221930499</v>
       </c>
       <c r="C43" t="n">
         <v>154.6003840628599</v>
@@ -3907,16 +3907,16 @@
         <v>151.8247133730227</v>
       </c>
       <c r="F43" t="n">
-        <v>158.7042731591139</v>
+        <v>158.7042731591133</v>
       </c>
       <c r="G43" t="n">
         <v>147.6996518856832</v>
       </c>
       <c r="H43" t="n">
-        <v>122.2674422277818</v>
+        <v>122.2674422277819</v>
       </c>
       <c r="I43" t="n">
-        <v>71.5376393943248</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.967932742934455</v>
+        <v>4.967932742934465</v>
       </c>
       <c r="S43" t="n">
         <v>141.4132446762359</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.57964473925398</v>
+        <v>66.57964473925399</v>
       </c>
       <c r="T44" t="n">
         <v>201.6308445169444</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>173.6647221930498</v>
+        <v>173.6647221930499</v>
       </c>
       <c r="C46" t="n">
         <v>154.6003840628599</v>
       </c>
       <c r="D46" t="n">
-        <v>147.9835025317451</v>
+        <v>147.9835025317452</v>
       </c>
       <c r="E46" t="n">
         <v>151.8247133730227</v>
       </c>
       <c r="F46" t="n">
-        <v>158.7042731591139</v>
+        <v>158.704273159114</v>
       </c>
       <c r="G46" t="n">
         <v>147.6996518856832</v>
       </c>
       <c r="H46" t="n">
-        <v>122.2674422277818</v>
+        <v>122.2674422277819</v>
       </c>
       <c r="I46" t="n">
-        <v>71.53763939432403</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.967932742934451</v>
+        <v>4.967932742934465</v>
       </c>
       <c r="S46" t="n">
         <v>141.4132446762359</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>443.0234284442651</v>
+        <v>981.0148405224497</v>
       </c>
       <c r="C2" t="n">
-        <v>408.9213596680925</v>
+        <v>946.912771746277</v>
       </c>
       <c r="D2" t="n">
-        <v>377.0519788829411</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E2" t="n">
-        <v>347.3176380816403</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F2" t="n">
-        <v>323.4906125312521</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G2" t="n">
-        <v>323.4906125312521</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L2" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M2" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N2" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O2" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>1769.919525576055</v>
       </c>
       <c r="W2" t="n">
-        <v>1292.327975491451</v>
+        <v>1769.104475027493</v>
       </c>
       <c r="X2" t="n">
-        <v>873.5687185891154</v>
+        <v>1411.5601306673</v>
       </c>
       <c r="Y2" t="n">
-        <v>465.2825948887688</v>
+        <v>1407.314411007358</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>1512.992809943912</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>1406.536348780554</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>1311.446059927107</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>1217.325645254061</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>1133.941806870223</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>1048.556717136407</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>1006.821064952619</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>1032.884738113077</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>2552.888048337089</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>2606.605388879811</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>2476.426745210413</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>2300.090198210381</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>2100.97268027238</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>1915.649926005574</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>1760.782490244454</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>1634.296711023675</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>286.0179953808982</v>
+        <v>1028.432740781182</v>
       </c>
       <c r="C4" t="n">
-        <v>286.0179953808982</v>
+        <v>855.8710292644067</v>
       </c>
       <c r="D4" t="n">
-        <v>120.1400025824209</v>
+        <v>689.9930364659294</v>
       </c>
       <c r="E4" t="n">
-        <v>120.1400025824209</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160834</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K4" t="n">
-        <v>308.7021231727439</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L4" t="n">
-        <v>726.9120049407049</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M4" t="n">
-        <v>1146.964903885608</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1349.676536110076</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O4" t="n">
-        <v>1349.676536110076</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T4" t="n">
-        <v>1270.644793662241</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U4" t="n">
-        <v>992.2117929153466</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V4" t="n">
-        <v>705.2562847857771</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="W4" t="n">
-        <v>705.2562847857771</v>
+        <v>1693.062784852648</v>
       </c>
       <c r="X4" t="n">
-        <v>705.2562847857771</v>
+        <v>1447.671030186061</v>
       </c>
       <c r="Y4" t="n">
-        <v>477.8366140998854</v>
+        <v>1220.251359500169</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>222.5729947989498</v>
+        <v>969.2487943945847</v>
       </c>
       <c r="C5" t="n">
-        <v>119.3744157384487</v>
+        <v>935.1467256184121</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>499.2369407928566</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>366.7751860086605</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>453.9965675465116</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="M5" t="n">
-        <v>453.9965675465116</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="N5" t="n">
-        <v>453.9965675465116</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>1477.116202953456</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U5" t="n">
-        <v>1477.116202953456</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="V5" t="n">
-        <v>1477.116202953456</v>
+        <v>2223.792002549091</v>
       </c>
       <c r="W5" t="n">
-        <v>1476.301152404893</v>
+        <v>2222.976952000528</v>
       </c>
       <c r="X5" t="n">
-        <v>1057.158688984204</v>
+        <v>1803.834488579839</v>
       </c>
       <c r="Y5" t="n">
-        <v>648.8725652838576</v>
+        <v>1395.548364879493</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>173.8458429112338</v>
+        <v>959.897665623735</v>
       </c>
       <c r="C7" t="n">
-        <v>173.8458429112338</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D7" t="n">
-        <v>173.8458429112338</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E7" t="n">
-        <v>173.8458429112338</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>173.8458429112338</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>173.8458429112338</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>89.90148899448771</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>89.90148899448771</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>509.954387939391</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>930.0072868842942</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1349.676536110076</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T7" t="n">
-        <v>1270.644793662241</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U7" t="n">
-        <v>992.2117929153466</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>705.2562847857771</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W7" t="n">
-        <v>433.2298803720686</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>187.8381257054811</v>
+        <v>1160.715522056491</v>
       </c>
       <c r="Y7" t="n">
-        <v>173.8458429112338</v>
+        <v>1151.716284342722</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1139.035354160572</v>
+        <v>1515.838921374201</v>
       </c>
       <c r="C8" t="n">
-        <v>700.8928813439957</v>
+        <v>1077.696448557625</v>
       </c>
       <c r="D8" t="n">
-        <v>264.9830965184402</v>
+        <v>641.786663732069</v>
       </c>
       <c r="E8" t="n">
-        <v>67.19066417893632</v>
+        <v>366.7751860086605</v>
       </c>
       <c r="F8" t="n">
-        <v>43.36363862854811</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G8" t="n">
-        <v>43.36363862854811</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>43.36363862854811</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36363862854811</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>478.618326081466</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>478.618326081466</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L8" t="n">
-        <v>478.618326081466</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M8" t="n">
-        <v>478.618326081466</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N8" t="n">
-        <v>478.618326081466</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O8" t="n">
-        <v>925.777810617783</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1462.402838646066</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1999.027866674348</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.181931427405</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2168.181931427405</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1948.114704300444</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>1948.114704300444</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V8" t="n">
-        <v>1585.49775423427</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="W8" t="n">
-        <v>1584.682703685708</v>
+        <v>2365.526674939741</v>
       </c>
       <c r="X8" t="n">
-        <v>1569.580644305423</v>
+        <v>1946.384211519051</v>
       </c>
       <c r="Y8" t="n">
-        <v>1565.33492464548</v>
+        <v>1942.138491859109</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>549.5353836198409</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>443.0789224564832</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>347.9886336030364</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>253.8682189299901</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>170.4843805461518</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>85.09929081233564</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>43.36363862854811</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>69.42731178900571</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>393.985636755218</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>930.6106647835009</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="L9" t="n">
-        <v>1052.805593984735</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="M9" t="n">
-        <v>1052.805593984735</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="N9" t="n">
-        <v>1052.805593984735</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="O9" t="n">
-        <v>1052.805593984735</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="P9" t="n">
-        <v>1052.805593984735</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="Q9" t="n">
-        <v>1589.430622013017</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1706.603400107357</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1643.14796255574</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1512.969318886342</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1336.63277188631</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1137.515253948309</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>952.1924996815033</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>797.3250639203833</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>670.839284699604</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>518.0313383944845</v>
+        <v>762.8950539462408</v>
       </c>
       <c r="C10" t="n">
-        <v>345.4696268777094</v>
+        <v>590.3333424294657</v>
       </c>
       <c r="D10" t="n">
-        <v>179.5916340792321</v>
+        <v>539.7684486257606</v>
       </c>
       <c r="E10" t="n">
-        <v>43.36363862854811</v>
+        <v>370.0104448764978</v>
       </c>
       <c r="F10" t="n">
-        <v>43.36363862854811</v>
+        <v>193.303390838254</v>
       </c>
       <c r="G10" t="n">
-        <v>43.36363862854811</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H10" t="n">
-        <v>43.36363862854811</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>43.36363862854811</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>43.36363862854811</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>318.1220931996837</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>736.3319749676448</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1195.815842148558</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1638.074645306203</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>2057.743894531984</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>2168.181931427405</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>2168.181931427405</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2146.764110132777</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1987.522741430774</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T10" t="n">
-        <v>1741.643295009229</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U10" t="n">
-        <v>1741.643295009229</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V10" t="n">
-        <v>1454.687786879659</v>
+        <v>1699.551502431416</v>
       </c>
       <c r="W10" t="n">
-        <v>1182.661382465951</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X10" t="n">
-        <v>937.2696277993634</v>
+        <v>1182.13334335112</v>
       </c>
       <c r="Y10" t="n">
-        <v>709.8499571134716</v>
+        <v>954.7136726652279</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1525.452063381448</v>
+        <v>1993.162741501533</v>
       </c>
       <c r="C11" t="n">
-        <v>1525.452063381448</v>
+        <v>1993.162741501533</v>
       </c>
       <c r="D11" t="n">
-        <v>1333.578202850743</v>
+        <v>1557.252956675978</v>
       </c>
       <c r="E11" t="n">
-        <v>899.8034580090384</v>
+        <v>1123.478211834273</v>
       </c>
       <c r="F11" t="n">
-        <v>471.9360284182462</v>
+        <v>695.6107822434806</v>
       </c>
       <c r="G11" t="n">
-        <v>70.53819704151009</v>
+        <v>294.2129508667444</v>
       </c>
       <c r="H11" t="n">
-        <v>70.53819704151009</v>
+        <v>71.79530151213245</v>
       </c>
       <c r="I11" t="n">
-        <v>70.53819704151009</v>
+        <v>71.79530151213245</v>
       </c>
       <c r="J11" t="n">
-        <v>505.7928844944279</v>
+        <v>322.9852018907579</v>
       </c>
       <c r="K11" t="n">
-        <v>505.7928844944279</v>
+        <v>1157.335493848936</v>
       </c>
       <c r="L11" t="n">
-        <v>505.7928844944279</v>
+        <v>1157.335493848936</v>
       </c>
       <c r="M11" t="n">
-        <v>505.7928844944279</v>
+        <v>1157.335493848936</v>
       </c>
       <c r="N11" t="n">
-        <v>1378.703072883115</v>
+        <v>1157.335493848936</v>
       </c>
       <c r="O11" t="n">
-        <v>1982.947126530456</v>
+        <v>2045.802350061575</v>
       </c>
       <c r="P11" t="n">
-        <v>2811.257001363852</v>
+        <v>2874.112224894971</v>
       </c>
       <c r="Q11" t="n">
-        <v>3357.755787322447</v>
+        <v>3420.611010853566</v>
       </c>
       <c r="R11" t="n">
-        <v>3526.909852075504</v>
+        <v>3589.765075606623</v>
       </c>
       <c r="S11" t="n">
-        <v>3443.257978259341</v>
+        <v>3506.11320179046</v>
       </c>
       <c r="T11" t="n">
-        <v>3443.257978259341</v>
+        <v>3506.11320179046</v>
       </c>
       <c r="U11" t="n">
-        <v>3184.035675576358</v>
+        <v>3246.890899107477</v>
       </c>
       <c r="V11" t="n">
-        <v>3184.035675576358</v>
+        <v>3246.890899107477</v>
       </c>
       <c r="W11" t="n">
-        <v>2779.180220987391</v>
+        <v>3246.890899107477</v>
       </c>
       <c r="X11" t="n">
-        <v>2360.037757566702</v>
+        <v>2827.748435686788</v>
       </c>
       <c r="Y11" t="n">
-        <v>1951.751633866355</v>
+        <v>2419.462311986441</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>576.7099420328029</v>
+        <v>577.9670465034252</v>
       </c>
       <c r="C12" t="n">
-        <v>470.2534808694452</v>
+        <v>471.5105853400675</v>
       </c>
       <c r="D12" t="n">
-        <v>375.1631920159984</v>
+        <v>376.4202964866208</v>
       </c>
       <c r="E12" t="n">
-        <v>281.0427773429521</v>
+        <v>282.2998818135745</v>
       </c>
       <c r="F12" t="n">
-        <v>197.6589389591138</v>
+        <v>198.9160434297361</v>
       </c>
       <c r="G12" t="n">
-        <v>112.2738492252976</v>
+        <v>113.53095369592</v>
       </c>
       <c r="H12" t="n">
-        <v>70.53819704151009</v>
+        <v>71.79530151213245</v>
       </c>
       <c r="I12" t="n">
-        <v>70.53819704151009</v>
+        <v>71.79530151213245</v>
       </c>
       <c r="J12" t="n">
-        <v>395.0965220077224</v>
+        <v>396.3536264783448</v>
       </c>
       <c r="K12" t="n">
-        <v>395.0965220077224</v>
+        <v>1077.087146548722</v>
       </c>
       <c r="L12" t="n">
-        <v>395.0965220077224</v>
+        <v>1077.087146548722</v>
       </c>
       <c r="M12" t="n">
-        <v>395.0965220077224</v>
+        <v>1077.087146548722</v>
       </c>
       <c r="N12" t="n">
-        <v>395.0965220077224</v>
+        <v>1077.087146548722</v>
       </c>
       <c r="O12" t="n">
-        <v>395.0965220077224</v>
+        <v>1077.087146548722</v>
       </c>
       <c r="P12" t="n">
-        <v>1075.866241793904</v>
+        <v>1077.123346264526</v>
       </c>
       <c r="Q12" t="n">
-        <v>1616.605180425979</v>
+        <v>1617.862284896602</v>
       </c>
       <c r="R12" t="n">
-        <v>1733.777958520319</v>
+        <v>1735.035062990941</v>
       </c>
       <c r="S12" t="n">
-        <v>1670.322520968702</v>
+        <v>1671.579625439324</v>
       </c>
       <c r="T12" t="n">
-        <v>1540.143877299304</v>
+        <v>1541.400981769926</v>
       </c>
       <c r="U12" t="n">
-        <v>1363.807330299272</v>
+        <v>1365.064434769894</v>
       </c>
       <c r="V12" t="n">
-        <v>1164.689812361271</v>
+        <v>1165.946916831894</v>
       </c>
       <c r="W12" t="n">
-        <v>979.3670580944654</v>
+        <v>980.6241625650875</v>
       </c>
       <c r="X12" t="n">
-        <v>824.4996223333453</v>
+        <v>825.7567268039676</v>
       </c>
       <c r="Y12" t="n">
-        <v>698.0138431125661</v>
+        <v>699.2709475831883</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1149.596357653392</v>
+        <v>834.2442337761446</v>
       </c>
       <c r="C13" t="n">
-        <v>977.0346461366165</v>
+        <v>661.6825222593695</v>
       </c>
       <c r="D13" t="n">
-        <v>811.1566533381392</v>
+        <v>495.8045294608922</v>
       </c>
       <c r="E13" t="n">
-        <v>641.3986495888764</v>
+        <v>326.0465257116294</v>
       </c>
       <c r="F13" t="n">
-        <v>464.6915955506326</v>
+        <v>326.0465257116294</v>
       </c>
       <c r="G13" t="n">
-        <v>299.1003205764603</v>
+        <v>160.4552507374571</v>
       </c>
       <c r="H13" t="n">
-        <v>159.1981462668348</v>
+        <v>160.4552507374571</v>
       </c>
       <c r="I13" t="n">
-        <v>70.53819704151009</v>
+        <v>71.79530151213245</v>
       </c>
       <c r="J13" t="n">
-        <v>157.1178822061999</v>
+        <v>158.3749866768223</v>
       </c>
       <c r="K13" t="n">
-        <v>431.8763367773356</v>
+        <v>433.1334412479579</v>
       </c>
       <c r="L13" t="n">
-        <v>850.0862185452966</v>
+        <v>851.3433230159189</v>
       </c>
       <c r="M13" t="n">
-        <v>1309.57008572621</v>
+        <v>1310.827190196832</v>
       </c>
       <c r="N13" t="n">
-        <v>1751.828888883854</v>
+        <v>1753.085993354476</v>
       </c>
       <c r="O13" t="n">
-        <v>2171.498138109635</v>
+        <v>2172.755242580258</v>
       </c>
       <c r="P13" t="n">
-        <v>2519.005032079977</v>
+        <v>2520.2621365506</v>
       </c>
       <c r="Q13" t="n">
-        <v>2687.19780694431</v>
+        <v>2688.454911414932</v>
       </c>
       <c r="R13" t="n">
-        <v>2687.197806944309</v>
+        <v>2667.037090120304</v>
       </c>
       <c r="S13" t="n">
-        <v>2527.956438242306</v>
+        <v>2582.168637559329</v>
       </c>
       <c r="T13" t="n">
-        <v>2282.076991820761</v>
+        <v>2336.289191137784</v>
       </c>
       <c r="U13" t="n">
-        <v>2003.643991073866</v>
+        <v>2057.856190390889</v>
       </c>
       <c r="V13" t="n">
-        <v>2003.643991073866</v>
+        <v>1770.900682261319</v>
       </c>
       <c r="W13" t="n">
-        <v>1731.617586660158</v>
+        <v>1498.874277847611</v>
       </c>
       <c r="X13" t="n">
-        <v>1486.22583199357</v>
+        <v>1253.482523181023</v>
       </c>
       <c r="Y13" t="n">
-        <v>1258.806161307679</v>
+        <v>1026.062852495132</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C14" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D14" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E14" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H14" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I14" t="n">
         <v>102.2608402707796</v>
@@ -5282,46 +5282,46 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>1463.16863798718</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N14" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W14" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>287.8657185439749</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>287.8657185439749</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L15" t="n">
-        <v>287.8657185439749</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M15" t="n">
-        <v>287.8657185439749</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N15" t="n">
-        <v>287.8657185439749</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O15" t="n">
-        <v>287.8657185439749</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P15" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q15" t="n">
         <v>1648.327823655249</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C16" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D16" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E16" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F16" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G16" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H16" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
         <v>102.2608402707796</v>
@@ -5458,28 +5458,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2697.502628878951</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T16" t="n">
-        <v>2451.623182457406</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U16" t="n">
-        <v>2404.930957497405</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V16" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W16" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X16" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y16" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="17">
@@ -5516,22 +5516,22 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>1371.865819681875</v>
+        <v>605.8694973157614</v>
       </c>
       <c r="L17" t="n">
-        <v>2446.925785934734</v>
+        <v>1680.929463568621</v>
       </c>
       <c r="M17" t="n">
-        <v>2446.925785934734</v>
+        <v>2837.977298779172</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423628</v>
+        <v>3963.708282215619</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="P17" t="n">
-        <v>4397.38916282733</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="Q17" t="n">
         <v>4943.887948785925</v>
@@ -5540,7 +5540,7 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
         <v>4809.322912595856</v>
@@ -5595,19 +5595,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
         <v>1107.588885023173</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>952.7568773477109</v>
+        <v>970.9960463903981</v>
       </c>
       <c r="C19" t="n">
-        <v>780.1951658309358</v>
+        <v>798.434334873623</v>
       </c>
       <c r="D19" t="n">
-        <v>614.3171730324584</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E19" t="n">
-        <v>444.5591692831957</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F19" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H19" t="n">
         <v>102.2608402707796</v>
@@ -5674,10 +5674,10 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>463.5989800066079</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>881.8088617745689</v>
+        <v>881.8088617745692</v>
       </c>
       <c r="M19" t="n">
         <v>1341.292728955482</v>
@@ -5698,25 +5698,25 @@
         <v>2718.920450173582</v>
       </c>
       <c r="S19" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173582</v>
       </c>
       <c r="T19" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752037</v>
       </c>
       <c r="U19" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005143</v>
       </c>
       <c r="V19" t="n">
-        <v>1889.413325832885</v>
+        <v>1907.652494875573</v>
       </c>
       <c r="W19" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461865</v>
       </c>
       <c r="X19" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795277</v>
       </c>
       <c r="Y19" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109385</v>
       </c>
     </row>
     <row r="20">
@@ -5738,13 +5738,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5753,31 +5753,31 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>1371.865819681875</v>
+        <v>605.8694973157614</v>
       </c>
       <c r="L20" t="n">
-        <v>2446.925785934734</v>
+        <v>1680.929463568621</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423627</v>
+        <v>2837.977298779172</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423627</v>
+        <v>3963.708282215619</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993933</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="P20" t="n">
-        <v>4397.38916282733</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
         <v>4809.322912595856</v>
@@ -5789,13 +5789,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X20" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5826,25 +5826,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>287.8657185439749</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>287.8657185439749</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L21" t="n">
-        <v>287.8657185439749</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M21" t="n">
-        <v>287.8657185439749</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N21" t="n">
-        <v>287.8657185439749</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O21" t="n">
-        <v>287.8657185439749</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P21" t="n">
         <v>1107.588885023173</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>952.7568773477108</v>
+        <v>1077.292364523336</v>
       </c>
       <c r="C22" t="n">
-        <v>780.1951658309357</v>
+        <v>904.7306530065611</v>
       </c>
       <c r="D22" t="n">
-        <v>614.3171730324584</v>
+        <v>738.8526602080838</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831957</v>
+        <v>569.094656458821</v>
       </c>
       <c r="F22" t="n">
-        <v>267.852115244952</v>
+        <v>392.3876024205772</v>
       </c>
       <c r="G22" t="n">
-        <v>102.2608402707796</v>
+        <v>226.7963274464049</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J22" t="n">
-        <v>188.8405254354695</v>
+        <v>188.8405254354724</v>
       </c>
       <c r="K22" t="n">
-        <v>463.598980006605</v>
+        <v>463.598980006608</v>
       </c>
       <c r="L22" t="n">
-        <v>881.8088617745661</v>
+        <v>881.808861774569</v>
       </c>
       <c r="M22" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.292728955482</v>
       </c>
       <c r="N22" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113127</v>
       </c>
       <c r="O22" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338908</v>
       </c>
       <c r="P22" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.72767530925</v>
       </c>
       <c r="Q22" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173582</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878954</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176951</v>
       </c>
       <c r="T22" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755406</v>
       </c>
       <c r="U22" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008511</v>
       </c>
       <c r="V22" t="n">
-        <v>1748.411126173566</v>
+        <v>2013.948813008511</v>
       </c>
       <c r="W22" t="n">
-        <v>1476.384721759858</v>
+        <v>1741.922408594803</v>
       </c>
       <c r="X22" t="n">
-        <v>1371.99516675259</v>
+        <v>1496.530653928215</v>
       </c>
       <c r="Y22" t="n">
-        <v>1144.575496066698</v>
+        <v>1269.110983242323</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5975,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5996,43 +5996,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S23" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T23" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U23" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V23" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6063,25 +6063,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>287.8657185439749</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>287.8657185439749</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L24" t="n">
-        <v>287.8657185439749</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M24" t="n">
-        <v>287.8657185439749</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N24" t="n">
-        <v>287.8657185439749</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O24" t="n">
-        <v>287.8657185439749</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P24" t="n">
         <v>1107.588885023173</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477108</v>
+        <v>1015.441008084184</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309357</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6169,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1207.259626803171</v>
       </c>
     </row>
     <row r="26">
@@ -6212,25 +6212,25 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1177.320806523639</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M26" t="n">
         <v>1463.16863798718</v>
@@ -6269,7 +6269,7 @@
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6300,25 +6300,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>287.8657185439749</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>287.8657185439749</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L27" t="n">
-        <v>287.8657185439749</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M27" t="n">
-        <v>287.8657185439749</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N27" t="n">
-        <v>287.8657185439749</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O27" t="n">
-        <v>287.8657185439749</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P27" t="n">
         <v>1107.588885023173</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477109</v>
+        <v>1015.441008084184</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309358</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324585</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2239.052964698928</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832885</v>
+        <v>1952.097456569358</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1680.07105215565</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1434.679297489062</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1207.259626803171</v>
       </c>
     </row>
     <row r="29">
@@ -6464,25 +6464,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>775.0235620688178</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L29" t="n">
-        <v>1850.083528321677</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M29" t="n">
-        <v>3007.131363532228</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N29" t="n">
-        <v>4132.862346968675</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477109</v>
+        <v>1062.363260807472</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309357</v>
+        <v>889.8015492906967</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324584</v>
+        <v>723.9235564922194</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>554.1655527429566</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>377.4584987047128</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>211.8672237305405</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6643,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1481.601550212351</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>1254.181879526459</v>
       </c>
     </row>
     <row r="32">
@@ -6686,13 +6686,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6701,22 +6701,22 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>605.8694973157604</v>
       </c>
       <c r="L32" t="n">
-        <v>1371.865819681875</v>
+        <v>1680.92946356862</v>
       </c>
       <c r="M32" t="n">
-        <v>2528.913654892426</v>
+        <v>2837.977298779171</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>3963.708282215618</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="Q32" t="n">
         <v>4943.887948785924</v>
@@ -6737,13 +6737,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6780,19 +6780,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
         <v>1107.588885023173</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477105</v>
+        <v>1017.756527079655</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>845.1948155628801</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>679.3168227644028</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H34" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6880,28 +6880,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832885</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1209.575145798642</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2425.39087720671</v>
+        <v>2425.390877206711</v>
       </c>
       <c r="C35" t="n">
         <v>2003.64811180301</v>
@@ -6920,67 +6920,67 @@
         <v>1584.13803439033</v>
       </c>
       <c r="E35" t="n">
-        <v>1166.762996961501</v>
+        <v>1166.762996961502</v>
       </c>
       <c r="F35" t="n">
-        <v>755.2952747835852</v>
+        <v>755.2952747835855</v>
       </c>
       <c r="G35" t="n">
         <v>370.2971508197255</v>
       </c>
       <c r="H35" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="I35" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="J35" t="n">
-        <v>97.56670367581785</v>
+        <v>532.8213911287357</v>
       </c>
       <c r="K35" t="n">
-        <v>97.56670367581785</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="L35" t="n">
-        <v>1172.626669928677</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="M35" t="n">
-        <v>2329.674505139228</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="N35" t="n">
-        <v>3455.405488575675</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="O35" t="n">
-        <v>4435.585155145982</v>
+        <v>3334.372458245846</v>
       </c>
       <c r="P35" t="n">
-        <v>4878.335183790892</v>
+        <v>4162.682333079242</v>
       </c>
       <c r="Q35" t="n">
-        <v>4878.335183790892</v>
+        <v>4709.181119037837</v>
       </c>
       <c r="R35" t="n">
-        <v>4878.335183790892</v>
+        <v>4878.335183790893</v>
       </c>
       <c r="S35" t="n">
-        <v>4811.083017387605</v>
+        <v>4811.083017387606</v>
       </c>
       <c r="T35" t="n">
-        <v>4607.41549767352</v>
+        <v>4607.415497673521</v>
       </c>
       <c r="U35" t="n">
-        <v>4364.592902403413</v>
+        <v>4364.592902403414</v>
       </c>
       <c r="V35" t="n">
         <v>4018.375659750116</v>
       </c>
       <c r="W35" t="n">
-        <v>3629.919912574025</v>
+        <v>3629.919912574026</v>
       </c>
       <c r="X35" t="n">
-        <v>3227.177156566212</v>
+        <v>3227.177156566213</v>
       </c>
       <c r="Y35" t="n">
-        <v>2835.290740278741</v>
+        <v>2835.290740278742</v>
       </c>
     </row>
     <row r="36">
@@ -7008,10 +7008,10 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H36" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="I36" t="n">
-        <v>123.6303768362754</v>
+        <v>123.6303768362755</v>
       </c>
       <c r="J36" t="n">
         <v>448.1887018024878</v>
@@ -7072,19 +7072,19 @@
         <v>1061.826912397566</v>
       </c>
       <c r="C37" t="n">
-        <v>905.6649082936674</v>
+        <v>905.6649082936667</v>
       </c>
       <c r="D37" t="n">
-        <v>756.1866229080662</v>
+        <v>756.1866229080656</v>
       </c>
       <c r="E37" t="n">
-        <v>602.8283265716796</v>
+        <v>602.828326571679</v>
       </c>
       <c r="F37" t="n">
-        <v>442.5209799463119</v>
+        <v>442.5209799463113</v>
       </c>
       <c r="G37" t="n">
-        <v>293.3294123850157</v>
+        <v>293.3294123850151</v>
       </c>
       <c r="H37" t="n">
         <v>169.8269454882664</v>
@@ -7111,10 +7111,10 @@
         <v>2294.966764156103</v>
       </c>
       <c r="P37" t="n">
-        <v>2658.547011361805</v>
+        <v>2658.547011361804</v>
       </c>
       <c r="Q37" t="n">
-        <v>2842.813139461497</v>
+        <v>2842.813139461496</v>
       </c>
       <c r="R37" t="n">
         <v>2837.795025579744</v>
@@ -7123,10 +7123,10 @@
         <v>2694.953364290617</v>
       </c>
       <c r="T37" t="n">
-        <v>2465.473625281949</v>
+        <v>2465.473625281948</v>
       </c>
       <c r="U37" t="n">
-        <v>2203.44033194793</v>
+        <v>2203.440331947929</v>
       </c>
       <c r="V37" t="n">
         <v>1932.884531231236</v>
@@ -7135,7 +7135,7 @@
         <v>1677.257834230404</v>
       </c>
       <c r="X37" t="n">
-        <v>1448.265786976693</v>
+        <v>1448.265786976692</v>
       </c>
       <c r="Y37" t="n">
         <v>1237.245823703677</v>
@@ -7151,7 +7151,7 @@
         <v>2425.39087720671</v>
       </c>
       <c r="C38" t="n">
-        <v>2003.64811180301</v>
+        <v>2003.648111803009</v>
       </c>
       <c r="D38" t="n">
         <v>1584.13803439033</v>
@@ -7166,10 +7166,10 @@
         <v>370.2971508197255</v>
       </c>
       <c r="H38" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I38" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J38" t="n">
         <v>532.8213911287357</v>
@@ -7181,22 +7181,22 @@
         <v>2442.231649339773</v>
       </c>
       <c r="M38" t="n">
-        <v>3599.279484550324</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="N38" t="n">
-        <v>3599.279484550324</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="O38" t="n">
-        <v>3599.279484550324</v>
+        <v>3422.411315910079</v>
       </c>
       <c r="P38" t="n">
-        <v>4162.682333079241</v>
+        <v>4250.721190743476</v>
       </c>
       <c r="Q38" t="n">
-        <v>4709.181119037836</v>
+        <v>4709.181119037835</v>
       </c>
       <c r="R38" t="n">
-        <v>4878.335183790892</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="S38" t="n">
         <v>4811.083017387605</v>
@@ -7211,13 +7211,13 @@
         <v>4018.375659750116</v>
       </c>
       <c r="W38" t="n">
-        <v>3629.919912574025</v>
+        <v>3629.919912574026</v>
       </c>
       <c r="X38" t="n">
         <v>3227.177156566212</v>
       </c>
       <c r="Y38" t="n">
-        <v>2835.290740278741</v>
+        <v>2835.290740278742</v>
       </c>
     </row>
     <row r="39">
@@ -7245,28 +7245,28 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H39" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I39" t="n">
         <v>123.6303768362754</v>
       </c>
       <c r="J39" t="n">
-        <v>448.1887018024878</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="K39" t="n">
-        <v>448.1887018024878</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="L39" t="n">
-        <v>448.1887018024878</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="M39" t="n">
-        <v>448.1887018024878</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="N39" t="n">
-        <v>448.1887018024878</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="O39" t="n">
-        <v>448.1887018024878</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="P39" t="n">
         <v>1102.894748428211</v>
@@ -7309,16 +7309,16 @@
         <v>1061.826912397566</v>
       </c>
       <c r="C40" t="n">
-        <v>905.6649082936672</v>
+        <v>905.6649082936667</v>
       </c>
       <c r="D40" t="n">
-        <v>756.1866229080661</v>
+        <v>756.1866229080656</v>
       </c>
       <c r="E40" t="n">
-        <v>602.8283265716797</v>
+        <v>602.828326571679</v>
       </c>
       <c r="F40" t="n">
-        <v>442.5209799463119</v>
+        <v>442.5209799463113</v>
       </c>
       <c r="G40" t="n">
         <v>293.3294123850158</v>
@@ -7327,7 +7327,7 @@
         <v>169.8269454882664</v>
       </c>
       <c r="I40" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J40" t="n">
         <v>200.2197420758676</v>
@@ -7348,13 +7348,13 @@
         <v>2294.966764156103</v>
       </c>
       <c r="P40" t="n">
-        <v>2658.547011361805</v>
+        <v>2658.547011361804</v>
       </c>
       <c r="Q40" t="n">
-        <v>2842.813139461497</v>
+        <v>2842.813139461496</v>
       </c>
       <c r="R40" t="n">
-        <v>2837.795025579745</v>
+        <v>2837.795025579744</v>
       </c>
       <c r="S40" t="n">
         <v>2694.953364290617</v>
@@ -7363,7 +7363,7 @@
         <v>2465.473625281948</v>
       </c>
       <c r="U40" t="n">
-        <v>2203.44033194793</v>
+        <v>2203.440331947929</v>
       </c>
       <c r="V40" t="n">
         <v>1932.884531231236</v>
@@ -7372,7 +7372,7 @@
         <v>1677.257834230404</v>
       </c>
       <c r="X40" t="n">
-        <v>1448.265786976693</v>
+        <v>1448.265786976692</v>
       </c>
       <c r="Y40" t="n">
         <v>1237.245823703677</v>
@@ -7403,10 +7403,10 @@
         <v>370.2971508197255</v>
       </c>
       <c r="H41" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I41" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J41" t="n">
         <v>532.8213911287357</v>
@@ -7418,25 +7418,25 @@
         <v>2442.231649339773</v>
       </c>
       <c r="M41" t="n">
-        <v>2523.346856428595</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="N41" t="n">
-        <v>2523.346856428595</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="O41" t="n">
-        <v>3503.526522998902</v>
+        <v>3422.411315910079</v>
       </c>
       <c r="P41" t="n">
-        <v>4331.836397832298</v>
+        <v>4250.721190743476</v>
       </c>
       <c r="Q41" t="n">
-        <v>4878.335183790892</v>
+        <v>4797.21997670207</v>
       </c>
       <c r="R41" t="n">
-        <v>4878.335183790892</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="S41" t="n">
-        <v>4811.083017387606</v>
+        <v>4811.083017387605</v>
       </c>
       <c r="T41" t="n">
         <v>4607.41549767352</v>
@@ -7482,34 +7482,34 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H42" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I42" t="n">
-        <v>123.6303768362754</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J42" t="n">
-        <v>448.1887018024878</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="K42" t="n">
-        <v>1102.894748428211</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="L42" t="n">
-        <v>1102.894748428211</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="M42" t="n">
-        <v>1102.894748428211</v>
+        <v>553.4185071663812</v>
       </c>
       <c r="N42" t="n">
-        <v>1102.894748428211</v>
+        <v>1760.806465154627</v>
       </c>
       <c r="O42" t="n">
-        <v>1102.894748428211</v>
+        <v>1760.806465154627</v>
       </c>
       <c r="P42" t="n">
-        <v>1102.894748428211</v>
+        <v>1760.806465154627</v>
       </c>
       <c r="Q42" t="n">
-        <v>1643.633687060287</v>
+        <v>1760.806465154627</v>
       </c>
       <c r="R42" t="n">
         <v>1760.806465154627</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1061.826912397567</v>
+        <v>1061.826912397566</v>
       </c>
       <c r="C43" t="n">
-        <v>905.6649082936678</v>
+        <v>905.6649082936667</v>
       </c>
       <c r="D43" t="n">
-        <v>756.1866229080667</v>
+        <v>756.1866229080656</v>
       </c>
       <c r="E43" t="n">
-        <v>602.8283265716801</v>
+        <v>602.828326571679</v>
       </c>
       <c r="F43" t="n">
-        <v>442.5209799463125</v>
+        <v>442.520979946312</v>
       </c>
       <c r="G43" t="n">
-        <v>293.3294123850163</v>
+        <v>293.3294123850158</v>
       </c>
       <c r="H43" t="n">
-        <v>169.826945488267</v>
+        <v>169.8269454882664</v>
       </c>
       <c r="I43" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J43" t="n">
         <v>200.2197420758676</v>
@@ -7585,34 +7585,34 @@
         <v>2294.966764156103</v>
       </c>
       <c r="P43" t="n">
-        <v>2658.547011361805</v>
+        <v>2658.547011361804</v>
       </c>
       <c r="Q43" t="n">
-        <v>2842.813139461497</v>
+        <v>2842.813139461496</v>
       </c>
       <c r="R43" t="n">
-        <v>2837.795025579745</v>
+        <v>2837.795025579744</v>
       </c>
       <c r="S43" t="n">
         <v>2694.953364290617</v>
       </c>
       <c r="T43" t="n">
-        <v>2465.473625281949</v>
+        <v>2465.473625281948</v>
       </c>
       <c r="U43" t="n">
-        <v>2203.44033194793</v>
+        <v>2203.440331947929</v>
       </c>
       <c r="V43" t="n">
-        <v>1932.884531231237</v>
+        <v>1932.884531231236</v>
       </c>
       <c r="W43" t="n">
-        <v>1677.257834230405</v>
+        <v>1677.257834230404</v>
       </c>
       <c r="X43" t="n">
-        <v>1448.265786976693</v>
+        <v>1448.265786976692</v>
       </c>
       <c r="Y43" t="n">
-        <v>1237.245823703678</v>
+        <v>1237.245823703677</v>
       </c>
     </row>
     <row r="44">
@@ -7640,40 +7640,40 @@
         <v>370.2971508197255</v>
       </c>
       <c r="H44" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I44" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J44" t="n">
         <v>532.8213911287357</v>
       </c>
       <c r="K44" t="n">
-        <v>1367.171683086914</v>
+        <v>1279.132825422679</v>
       </c>
       <c r="L44" t="n">
-        <v>2442.231649339773</v>
+        <v>2354.192791675538</v>
       </c>
       <c r="M44" t="n">
-        <v>2442.231649339773</v>
+        <v>2354.192791675538</v>
       </c>
       <c r="N44" t="n">
-        <v>2442.231649339773</v>
+        <v>2354.192791675538</v>
       </c>
       <c r="O44" t="n">
-        <v>3422.411315910079</v>
+        <v>3334.372458245844</v>
       </c>
       <c r="P44" t="n">
-        <v>4250.721190743476</v>
+        <v>4162.68233307924</v>
       </c>
       <c r="Q44" t="n">
-        <v>4797.21997670207</v>
+        <v>4709.181119037835</v>
       </c>
       <c r="R44" t="n">
-        <v>4878.335183790892</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="S44" t="n">
-        <v>4811.083017387606</v>
+        <v>4811.083017387605</v>
       </c>
       <c r="T44" t="n">
         <v>4607.41549767352</v>
@@ -7719,28 +7719,28 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H45" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I45" t="n">
         <v>123.6303768362754</v>
       </c>
       <c r="J45" t="n">
-        <v>448.1887018024878</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="K45" t="n">
-        <v>1102.894748428211</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="L45" t="n">
-        <v>1102.894748428211</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="M45" t="n">
-        <v>1102.894748428211</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="N45" t="n">
-        <v>1102.894748428211</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="O45" t="n">
-        <v>1102.894748428211</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="P45" t="n">
         <v>1102.894748428211</v>
@@ -7783,25 +7783,25 @@
         <v>1061.826912397566</v>
       </c>
       <c r="C46" t="n">
-        <v>905.6649082936672</v>
+        <v>905.6649082936674</v>
       </c>
       <c r="D46" t="n">
-        <v>756.1866229080661</v>
+        <v>756.1866229080662</v>
       </c>
       <c r="E46" t="n">
-        <v>602.8283265716794</v>
+        <v>602.8283265716796</v>
       </c>
       <c r="F46" t="n">
-        <v>442.5209799463119</v>
+        <v>442.520979946312</v>
       </c>
       <c r="G46" t="n">
-        <v>293.3294123850157</v>
+        <v>293.3294123850158</v>
       </c>
       <c r="H46" t="n">
         <v>169.8269454882664</v>
       </c>
       <c r="I46" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J46" t="n">
         <v>200.2197420758676</v>
@@ -7834,7 +7834,7 @@
         <v>2694.953364290617</v>
       </c>
       <c r="T46" t="n">
-        <v>2465.473625281948</v>
+        <v>2465.473625281949</v>
       </c>
       <c r="U46" t="n">
         <v>2203.44033194793</v>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7991,13 +7991,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,7 +8134,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -8143,19 +8143,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>204.7592244691589</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>56.52305090189834</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512941</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8462,16 +8462,16 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O8" t="n">
-        <v>451.6762470063808</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>542.0454828568513</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>542.0454828568513</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>542.0454828568513</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L9" t="n">
-        <v>123.4292214153875</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>542.0454828568513</v>
+        <v>540.0049805212334</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,7 +8608,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -8626,10 +8626,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>111.5535726216376</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8687,10 +8687,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>253.7271720996217</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8699,10 +8699,10 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>881.7274630188762</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>610.3475289367082</v>
+        <v>897.4412689016558</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8769,7 +8769,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>687.6461816022036</v>
+        <v>0.03656536949893052</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8930,13 +8930,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>92.22506899525706</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -9000,13 +9000,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>187.4796750234296</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,10 +9021,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9164,25 +9164,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>69.04441372935742</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>170.8626916697543</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9401,25 +9401,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>69.04441372935742</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>170.8626916697543</v>
@@ -9474,10 +9474,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>187.4796750234296</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9495,7 +9495,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9644,10 +9644,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9711,10 +9711,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>187.4796750234296</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9732,7 +9732,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -9872,16 +9872,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>288.735183296506</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N26" t="n">
         <v>1137.102003471159</v>
@@ -9948,10 +9948,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>187.4796750234296</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9969,7 +9969,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10112,7 +10112,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465032</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -10124,16 +10124,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831379</v>
+        <v>110.0804674982792</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10349,25 +10349,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>69.04441372935651</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>60.59188538505123</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>170.8626916697543</v>
@@ -10428,7 +10428,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10443,7 +10443,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831379</v>
+        <v>901.152332228357</v>
       </c>
       <c r="P35" t="n">
-        <v>447.222251156476</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10829,19 +10829,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>569.0937863928461</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157522</v>
+        <v>463.0908366609692</v>
       </c>
       <c r="R38" t="n">
         <v>170.8626916697543</v>
@@ -10917,7 +10917,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11066,7 +11066,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>81.93455261497229</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>81.93455261497093</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,22 +11133,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>460.4563671621853</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>1219.583795947723</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11157,10 +11157,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11297,7 +11297,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>753.8499336302457</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>81.93455261497184</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,7 +11391,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -22610,7 +22610,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>60.98213786989184</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -23261,7 +23261,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>241.5955650519026</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>66.04538015015004</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -23318,7 +23318,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>81.7827269140529</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23425,13 +23425,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>73.62918697961793</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>-1.151023720780131e-12</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="U16" t="n">
-        <v>229.4233680290251</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>120.4463752142688</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23938,7 +23938,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627221</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>102.9863699957317</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24184,13 +24184,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>139.5921776627259</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.8531101735159</v>
       </c>
     </row>
     <row r="26">
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>222.8531101735159</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>29.99283294136596</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627259</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25081,7 +25081,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>161.9268490649758</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -25327,7 +25327,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>6.252776074688882e-13</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25561,7 +25561,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>6.252776074688882e-13</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25795,7 +25795,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>6.252776074688882e-13</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>833742.3230058107</v>
+        <v>844042.513079241</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>833742.3230058107</v>
+        <v>851202.425886545</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>842195.271261197</v>
+        <v>851202.425886545</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>668637.2185410529</v>
+        <v>676663.8604377639</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>871187.0488605649</v>
+        <v>871187.0488605651</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>871187.0488605651</v>
+        <v>871187.0488605649</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>871187.0488605649</v>
+        <v>871187.0488605651</v>
       </c>
     </row>
     <row r="9">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>147440.5129698623</v>
+        <v>146105.6139718904</v>
       </c>
       <c r="C2" t="n">
         <v>147440.5129698623</v>
@@ -26320,13 +26320,13 @@
         <v>147440.5129698623</v>
       </c>
       <c r="E2" t="n">
-        <v>111200.0715271666</v>
+        <v>112534.9705251385</v>
       </c>
       <c r="F2" t="n">
         <v>144885.8356377719</v>
       </c>
       <c r="G2" t="n">
-        <v>144885.8356377719</v>
+        <v>144885.8356377718</v>
       </c>
       <c r="H2" t="n">
         <v>144885.8356377719</v>
@@ -26353,7 +26353,7 @@
         <v>147440.5129698624</v>
       </c>
       <c r="P2" t="n">
-        <v>147440.5129698624</v>
+        <v>147440.5129698623</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>223699.6985840448</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>36576.56611835373</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>101421.566272817</v>
+        <v>68650.86382755784</v>
       </c>
       <c r="F3" t="n">
-        <v>113617.0259238711</v>
+        <v>109114.6119795017</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449901</v>
+        <v>174651.3487177061</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>29801.37042610259</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>83016.20625515946</v>
+        <v>55664.59249872607</v>
       </c>
       <c r="N3" t="n">
-        <v>97121.64797769126</v>
+        <v>93272.91264423958</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,28 +26415,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>212093.1194372179</v>
+        <v>171118.9301855291</v>
       </c>
       <c r="C4" t="n">
-        <v>212093.1194372179</v>
+        <v>173889.5352664431</v>
       </c>
       <c r="D4" t="n">
-        <v>193597.6430719449</v>
+        <v>173889.535266443</v>
       </c>
       <c r="E4" t="n">
-        <v>72819.33244119765</v>
+        <v>73693.49063708507</v>
       </c>
       <c r="F4" t="n">
         <v>94878.44464875289</v>
       </c>
       <c r="G4" t="n">
-        <v>94878.44464875292</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="H4" t="n">
-        <v>94878.44464875291</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="I4" t="n">
-        <v>94878.44464875285</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="J4" t="n">
         <v>94878.44464875289</v>
@@ -26454,7 +26454,7 @@
         <v>107302.2988178706</v>
       </c>
       <c r="O4" t="n">
-        <v>107302.2988178706</v>
+        <v>107302.2988178705</v>
       </c>
       <c r="P4" t="n">
         <v>107302.2988178706</v>
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>66583.96535769655</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>53609.02975154766</v>
+        <v>54564.42914922066</v>
       </c>
       <c r="F5" t="n">
         <v>77718.23860579252</v>
@@ -26491,25 +26491,25 @@
         <v>77718.23860579252</v>
       </c>
       <c r="J5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="K5" t="n">
         <v>77718.23860579252</v>
       </c>
       <c r="L5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>75515.61472608971</v>
+        <v>75515.61472608973</v>
       </c>
       <c r="N5" t="n">
-        <v>75515.61472608971</v>
+        <v>75515.6147260897</v>
       </c>
       <c r="O5" t="n">
-        <v>75515.61472608971</v>
+        <v>75515.6147260897</v>
       </c>
       <c r="P5" t="n">
-        <v>75515.61472608971</v>
+        <v>75515.6147260897</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-266268.6952642879</v>
+        <v>-322937.6748048774</v>
       </c>
       <c r="C6" t="n">
-        <v>-124077.394604578</v>
+        <v>-100661.5468583384</v>
       </c>
       <c r="D6" t="n">
-        <v>-149317.6615781328</v>
+        <v>-100661.5468583384</v>
       </c>
       <c r="E6" t="n">
-        <v>-116649.8569383958</v>
+        <v>-84691.13620185894</v>
       </c>
       <c r="F6" t="n">
-        <v>-141327.8735406446</v>
+        <v>-136848.6839356579</v>
       </c>
       <c r="G6" t="n">
-        <v>-27710.84761677351</v>
+        <v>-27734.0719561562</v>
       </c>
       <c r="H6" t="n">
-        <v>-27710.84761677352</v>
+        <v>-27734.07195615617</v>
       </c>
       <c r="I6" t="n">
-        <v>-27710.84761677352</v>
+        <v>-27734.0719561562</v>
       </c>
       <c r="J6" t="n">
-        <v>-138725.3129617636</v>
+        <v>-202385.4206738623</v>
       </c>
       <c r="K6" t="n">
-        <v>-27710.84761677351</v>
+        <v>-27734.07195615616</v>
       </c>
       <c r="L6" t="n">
-        <v>-57512.21804287611</v>
+        <v>-27734.07195615617</v>
       </c>
       <c r="M6" t="n">
-        <v>-118393.6068292573</v>
+        <v>-91041.99307282399</v>
       </c>
       <c r="N6" t="n">
-        <v>-132499.0485517891</v>
+        <v>-128650.3132183375</v>
       </c>
       <c r="O6" t="n">
-        <v>-35377.40057409785</v>
+        <v>-35377.40057409779</v>
       </c>
       <c r="P6" t="n">
-        <v>-35377.40057409785</v>
+        <v>-35377.40057409793</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="N2" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="O2" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="P2" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="3">
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>542.0454828568513</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>881.7274630188761</v>
+        <v>897.4412689016557</v>
       </c>
       <c r="F4" t="n">
         <v>1278.260503384745</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>117.749625336747</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>339.6819801620247</v>
+        <v>229.9260622937987</v>
       </c>
       <c r="F4" t="n">
-        <v>396.5330403658693</v>
+        <v>380.8192344830896</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201042</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>117.7496253367468</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>281.0052727250026</v>
+        <v>171.2493548567766</v>
       </c>
       <c r="N4" t="n">
-        <v>396.5330403658693</v>
+        <v>380.8192344830892</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>117.749625336747</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>339.6819801620247</v>
+        <v>229.9260622937987</v>
       </c>
       <c r="N4" t="n">
-        <v>396.5330403658693</v>
+        <v>380.8192344830896</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
@@ -27385,19 +27385,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>25.16288230853968</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>0.3793744531705556</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27537,25 +27537,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>102.9863699957349</v>
       </c>
       <c r="F4" t="n">
-        <v>89.60561285685689</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27594,13 +27594,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,13 +27616,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>331.5944548185149</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>298.2998601569336</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,10 +27631,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>400</v>
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>211.293114012728</v>
+        <v>216.2362286424013</v>
       </c>
     </row>
     <row r="8">
@@ -27859,7 +27859,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>233.622489377179</v>
+        <v>157.1756344471134</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27868,10 +27868,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,13 +27910,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>400</v>
@@ -28014,19 +28014,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>114.1599680048245</v>
       </c>
       <c r="E10" t="n">
-        <v>33.19470821559298</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28065,7 +28065,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-2.779647469158316e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28749,7 +28749,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>3.205021433435225e-12</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -28852,7 +28852,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-8.810729923425242e-13</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -28980,7 +28980,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>2.922225424602705e-12</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C35" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D35" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E35" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F35" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G35" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H35" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I35" t="n">
         <v>0.4126214791313976</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T35" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U35" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V35" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W35" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X35" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y35" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="J37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="K37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="L37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="M37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="N37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="O37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="P37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Q37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="R37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="S37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="J40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="K40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="L40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="M40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="N40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="O40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="P40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="R40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="S40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="J43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="K43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="L43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="M43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="N43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="O43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="P43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="R43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="S43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="J46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="K46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="L46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="M46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="N46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="O46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="P46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="R46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="S46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
   </sheetData>
@@ -34696,10 +34696,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34711,13 +34711,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,16 +34772,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34796,7 +34796,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,7 +34854,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34863,19 +34863,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N4" t="n">
-        <v>204.7592244691589</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>56.52305090189834</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512941</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35182,16 +35182,16 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O8" t="n">
-        <v>451.6762470063808</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>542.0454828568513</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>542.0454828568513</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>542.0454828568513</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L9" t="n">
-        <v>123.4292214153875</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>542.0454828568513</v>
+        <v>540.0049805212334</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,7 +35328,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -35337,7 +35337,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>464.1251183645589</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
@@ -35346,10 +35346,10 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>111.5535726216376</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,10 +35407,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>253.7271720996217</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -35419,13 +35419,13 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>881.7274630188762</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>610.3475289367082</v>
+        <v>897.4412689016558</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458549</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
@@ -35489,7 +35489,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35504,7 +35504,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>687.6461816022036</v>
+        <v>0.03656536949893052</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35574,7 +35574,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -35650,13 +35650,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>92.22506899525706</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>187.4796750234296</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35741,10 +35741,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908064</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35884,25 +35884,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850282</v>
+        <v>69.04441372935742</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>170.862691669754</v>
@@ -35963,7 +35963,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35978,7 +35978,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36042,25 +36042,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960994</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080447</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,25 +36121,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850282</v>
+        <v>69.04441372935742</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>170.862691669754</v>
@@ -36194,10 +36194,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>187.4796750234296</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36215,7 +36215,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>87.4542274390836</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36291,13 +36291,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36364,10 +36364,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36431,10 +36431,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>187.4796750234296</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -36452,7 +36452,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -36528,7 +36528,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
@@ -36592,16 +36592,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>288.735183296506</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N26" t="n">
         <v>1137.102003471159</v>
@@ -36668,10 +36668,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>187.4796750234296</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36689,7 +36689,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
@@ -36832,7 +36832,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465032</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -36844,16 +36844,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831377</v>
+        <v>110.0804674982792</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36999,7 +36999,7 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N31" t="n">
-        <v>446.726063795601</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
         <v>423.9083325512943</v>
@@ -37069,25 +37069,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>69.04441372935651</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>60.59188538505123</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>170.862691669754</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37163,7 +37163,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
         <v>277.5337924960966</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831377</v>
+        <v>901.152332228357</v>
       </c>
       <c r="P35" t="n">
-        <v>447.222251156476</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37476,13 +37476,13 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O37" t="n">
-        <v>440.1440428900421</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P37" t="n">
-        <v>367.2527749552546</v>
+        <v>367.2527749552542</v>
       </c>
       <c r="Q37" t="n">
-        <v>186.1274021209015</v>
+        <v>186.127402120901</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37549,19 +37549,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>569.0937863928461</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157523</v>
+        <v>463.0908366609692</v>
       </c>
       <c r="R38" t="n">
         <v>170.862691669754</v>
@@ -37637,7 +37637,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -37713,13 +37713,13 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O40" t="n">
-        <v>440.1440428900421</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P40" t="n">
-        <v>367.2527749552546</v>
+        <v>367.2527749552542</v>
       </c>
       <c r="Q40" t="n">
-        <v>186.1274021209015</v>
+        <v>186.127402120901</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37786,7 +37786,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>81.93455261497229</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -37795,13 +37795,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>81.93455261497093</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,22 +37853,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>460.4563671621853</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>1219.583795947723</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37877,10 +37877,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37950,13 +37950,13 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O43" t="n">
-        <v>440.1440428900421</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P43" t="n">
-        <v>367.2527749552546</v>
+        <v>367.2527749552542</v>
       </c>
       <c r="Q43" t="n">
-        <v>186.1274021209015</v>
+        <v>186.127402120901</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,7 +38017,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>753.8499336302457</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
@@ -38032,13 +38032,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>81.93455261497184</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38111,7 +38111,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
